--- a/medicine/Psychotrope/Chesterfield_(cigarette)/Chesterfield_(cigarette).xlsx
+++ b/medicine/Psychotrope/Chesterfield_(cigarette)/Chesterfield_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chesterfield est une marque de cigarettes créée et introduite en 1883 par la société de tabac Drummond (en). 
 Il en existe deux sortes : les paquets rouges (classiques) et les paquets bleus (« light »). 
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cigarettes Chesterfield ont d'abord été fabriquées et vendues en 1883 par la société de tabac Drummond, de Saint-Louis, Missouri, aux États-Unis qui était la propriété de James T. Drummond (1834-1897), un fabricant de tabac. 
 Après la mort de Drummond en 1897, James Duke, de l'American Tobacco Company (en), rachète la société Drummond en octobre de l'année suivante. Enfin, Liggett &amp; Myers s'allie avec l'ATC en 1899. 
@@ -550,7 +564,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chesterfield fut rendue célèbre notamment à travers le film de Jean-Luc Godard À bout de souffle (1960) dans lequel la cigarette fumée par l'actrice Jean Seberg est une Chesterfield.
 Des Chesterfield sont également fumées par Willie (John Lurie) et Eva (Eszter Bálint) dans Stranger Than Paradise de Jim Jarmusch.
